--- a/listaEspectros.xlsx
+++ b/listaEspectros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.soto\Desktop\personal\search\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\learning\search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD49EDD-44B9-471F-AB87-3E9FDB546D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD311D0-D2E5-4D92-9810-C203BD434ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{818AB32B-B200-4F2D-BFA3-6ECB68CAC722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{818AB32B-B200-4F2D-BFA3-6ECB68CAC722}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,9 +77,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -386,100 +395,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9BEB97-5E51-49B3-86D1-AD596D759EF1}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>619.52499999999998</v>
+        <v>592.28800000000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>647.44600000000003</v>
+        <v>595.69299999999998</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>648.68700000000001</v>
+        <v>596.697</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>659.125</v>
+        <v>597.697</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>659.99599999999998</v>
+        <v>598.69100000000003</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>672.35199999999998</v>
+        <v>603.81799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>726.93299999999999</v>
+        <v>605.82600000000002</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>834.51099999999997</v>
+        <v>606.83900000000006</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>854.90599999999995</v>
+        <v>607.83500000000004</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>882.86199999999997</v>
+        <v>608.83399999999995</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>883.88800000000003</v>
+        <v>609.62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>885.14599999999996</v>
+        <v>610.61300000000006</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>910.77300000000002</v>
+        <v>611.61500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>938.97699999999998</v>
+        <v>612.60699999999997</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>976.26800000000003</v>
+        <v>613.59</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1048.116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>614.58000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1119.8240000000001</v>
+        <v>615.73699999999997</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>617.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>618.75699999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>619.75900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>620.76400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>621.58699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>622.59199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>623.60699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>624.59799999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>625.59199999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>626.60699999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>627.58399999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>628.55499999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>629.54200000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>631.63099999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>636.60400000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>637.49099999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>638.495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>639.57799999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>640.58299999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>641.58000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>642.57799999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>643.46299999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>645.69600000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>647.70899999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>648.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>649.70500000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>650.50599999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>651.52700000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>652.59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>655.51499999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>656.50599999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>657.51499999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>658.53399999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>659.40499999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>660.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>661.41399999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>663.649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>664.66099999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>666.41399999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>668.72199999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>669.71500000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>675.34799999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>676.35699999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>677.35699999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>680.51099999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>683.49599999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>684.495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>685.49300000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>686.48400000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>687.42499999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>688.45299999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>689.45100000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>690.452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>691.46299999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>696.69500000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>699.43600000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>700.43299999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>701.42499999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>702.42700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>703.46400000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>704.45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>706.41700000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>713.37800000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>714.39700000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>715.31500000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>717.41899999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>718.41300000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>719.41899999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>720.40800000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>724.33799999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>725.34799999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>726.35900000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>727.43100000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>728.40700000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>729.42100000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>730.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>732.36099999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>733.35900000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>735.36599999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>743.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>744.37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>745.38499999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>747.40899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>751.37300000000005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>752.37300000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>753.39400000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>757.37099999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>760.39400000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>768.38199999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>769.39300000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>770.39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>771.38400000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>772.38599999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>773.33299999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>779.44899999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>787.34299999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>788.36500000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>789.33900000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>791.28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>807.43700000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>815.35900000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>816.36800000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>831.32299999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>832.32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>833.32500000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>834.33600000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>837.49300000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>838.48800000000006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>853.53499999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>854.54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>855.548</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>856.55100000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>857.56500000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>858.55600000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>859.34699999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>860.35699999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>869.52499999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>871.51800000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>872.51400000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>873.51099999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>875.31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>881.39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>881.553</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>882.55100000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>883.56799999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>884.57799999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>885.58100000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>886.577</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>893.34400000000005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>894.322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>897.35599999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>897.54100000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>898.35599999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>899.54100000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>900.54399999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>901.55700000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>902.54200000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>903.36099999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>909.58299999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>910.59900000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>911.59799999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>912.59900000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>913.61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>914.60199999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>925.55100000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>927.56399999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>928.56700000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>929.56799999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>939.63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>940.64599999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>